--- a/documentatie/logboek/personlijke_logboek/Logboek.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_mit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_mit\Desktop\mappen\School\Pr\Barroc-IT\documentatie\logboek\personlijke_logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Groepsleden: Ben Smits, Jarno Touw, Santi Dudok.</t>
+  </si>
+  <si>
+    <t>Wie</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>upload template files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email naar opdrachtgever </t>
   </si>
 </sst>
 </file>
@@ -99,11 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -418,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,22 +445,22 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -452,40 +468,68 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42983</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>42983</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
